--- a/Transporte/licencias_conducir_csv/Licencias por Region.xlsx
+++ b/Transporte/licencias_conducir_csv/Licencias por Region.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Transporte\licencias_conducir_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{17A46D7F-272C-404B-8837-F37FE521FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F18DCC2-1680-4B71-B040-BB1EF3795080}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE9F64B-A6AC-418B-A111-67320CAD1D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EF7F8357-866C-4EDD-B0EB-FDD12D655BD1}"/>
   </bookViews>
@@ -647,7 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50035865-DA65-44BE-A28E-2DAF35A849B7}">
   <dimension ref="A1:U815"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
